--- a/data/metadaten/metadaten_briefe.xlsx
+++ b/data/metadaten/metadaten_briefe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annab\OneDrive\Desktop\Kralik\mathilde_kralik\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annab\OneDrive\Desktop\Kralik\mathilde_kralik\data\metadaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BE0385-48A0-4AA0-A9B3-422C180431FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E27FD39-2237-4796-917B-97F3A6619D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B905B6C9-A590-4770-A578-D21B3DA45D45}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -96,15 +96,24 @@
   </si>
   <si>
     <t>1899-06-15</t>
+  </si>
+  <si>
+    <t>1901-04-10</t>
+  </si>
+  <si>
+    <t>1902-09-21</t>
+  </si>
+  <si>
+    <t>1902-10-02</t>
+  </si>
+  <si>
+    <t>1903-02-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,11 +160,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -494,13 +504,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -520,7 +533,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
@@ -540,8 +553,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>466</v>
+      <c r="A3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -560,8 +573,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>995</v>
+      <c r="A4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -580,8 +593,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>1006</v>
+      <c r="A5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -600,8 +613,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>1131</v>
+      <c r="A6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
